--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Gautier.Fall.100819.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Gautier.Fall.100819.xlsx_with_dialog_acts.xlsx
@@ -1159,12 +1159,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1197,12 +1197,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1501,12 +1501,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1843,12 +1843,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3291,12 +3291,12 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4017,12 +4017,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4283,12 +4283,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4933,12 +4933,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5553,12 +5553,12 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5751,12 +5751,12 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5789,12 +5789,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6169,12 +6169,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6359,12 +6359,12 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6477,12 +6477,12 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7047,12 +7047,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7389,12 +7389,12 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7545,12 +7545,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7583,12 +7583,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7773,12 +7773,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9043,12 +9043,12 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9119,12 +9119,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9385,12 +9385,12 @@
       <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9537,12 +9537,12 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9883,12 +9883,12 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10415,12 +10415,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10643,12 +10643,12 @@
       <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10947,12 +10947,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11483,12 +11483,12 @@
       <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11673,12 +11673,12 @@
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11749,12 +11749,12 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12129,12 +12129,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12205,12 +12205,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12893,12 +12893,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13045,12 +13045,12 @@
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13881,12 +13881,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14033,12 +14033,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14337,12 +14337,12 @@
       <c r="H364" t="inlineStr"/>
       <c r="I364" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14603,12 +14603,12 @@
       <c r="H371" t="inlineStr"/>
       <c r="I371" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14757,12 +14757,12 @@
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
